--- a/simulations/cleaned_inclusion_exclusion/Wolters_2018 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Wolters_2018 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -713,13 +713,13 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.4247663551401869</v>
+        <v>0.8100467289719626</v>
       </c>
       <c r="I3">
-        <v>0.4365913610593016</v>
+        <v>0.03605528724416063</v>
       </c>
       <c r="J3">
-        <v>-0.1052631578947368</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="K3">
-        <v>1870.315789473684</v>
+        <v>163.6315789473684</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -755,34 +755,34 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>1725</v>
+        <v>5</v>
       </c>
       <c r="R3">
-        <v>1738</v>
+        <v>10</v>
       </c>
       <c r="S3">
-        <v>1751</v>
+        <v>38</v>
       </c>
       <c r="T3">
-        <v>1907</v>
+        <v>157</v>
       </c>
       <c r="U3">
-        <v>2073</v>
+        <v>317</v>
       </c>
       <c r="V3">
-        <v>2536</v>
+        <v>4256</v>
       </c>
       <c r="W3">
-        <v>2523</v>
+        <v>4251</v>
       </c>
       <c r="X3">
-        <v>2510</v>
+        <v>4223</v>
       </c>
       <c r="Y3">
-        <v>2354</v>
+        <v>4104</v>
       </c>
       <c r="Z3">
-        <v>2188</v>
+        <v>3944</v>
       </c>
       <c r="AA3">
         <v>18</v>
@@ -800,19 +800,19 @@
         <v>2</v>
       </c>
       <c r="AF3">
-        <v>0.5951650000000001</v>
+        <v>0.998827</v>
       </c>
       <c r="AG3">
-        <v>0.5921149999999999</v>
+        <v>0.997653</v>
       </c>
       <c r="AH3">
-        <v>0.589064</v>
+        <v>0.991082</v>
       </c>
       <c r="AI3">
-        <v>0.5524520000000001</v>
+        <v>0.963154</v>
       </c>
       <c r="AJ3">
-        <v>0.513494</v>
+        <v>0.925604</v>
       </c>
     </row>
   </sheetData>
